--- a/Fase 2/Documentacion/Carta Gantt.xlsx
+++ b/Fase 2/Documentacion/Carta Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\GitHub\Capstone\Fase 2\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C69E6-E263-4CA6-B5A5-B9514D907CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F2640-DE15-4B9C-A8C3-EF3F29360BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -508,6 +508,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,12 +520,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +761,7 @@
   <dimension ref="A1:AZ990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -776,39 +776,39 @@
   <sheetData>
     <row r="1" spans="1:52" ht="28.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -842,9 +842,9 @@
     </row>
     <row r="2" spans="1:52" ht="22.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="8"/>
@@ -1887,7 +1887,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1947,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -2007,7 +2007,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2067,7 +2067,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2127,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2187,7 +2187,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2303,7 +2303,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2363,7 +2363,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2423,7 +2423,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2485,7 +2485,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
